--- a/Översikt ÖVERKALIX.xlsx
+++ b/Översikt ÖVERKALIX.xlsx
@@ -575,7 +575,7 @@
         <v>45958</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>46059.55278935185</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>45534</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>45946</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -993,7 +993,7 @@
         <v>45544</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>45894</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>45163.65806712963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>45211.46008101852</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>45310</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>45874.64776620371</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>45671</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45922</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44463</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44596</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>45544</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45758.55125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45170</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>45908.61506944444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>45478</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>45908</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45831.35403935185</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>45922</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>45769</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>46009.44835648148</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>45154</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>45534</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>44645</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>44658</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>45805.64427083333</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>45807.41697916666</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>44809.62597222222</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>45894.51512731481</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>45622</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>45904.6202662037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>45909.56116898148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>45831.36143518519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>45926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>45835.66175925926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>45838</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>45540</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45581</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>45581</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>45849.55521990741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>45859.30603009259</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>44966</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>45174</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>45520</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>46057</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>45540</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>45450</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>45588.4158912037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5271,7 +5271,7 @@
         <v>44496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>44356</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>44582</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>44550</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>44438</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>44718</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44386.91877314815</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44244</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>44551</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>44374</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>44330.35358796296</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>44711</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>44717</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>44755.41444444445</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>44602.92184027778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>44424</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>44466.93474537037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44862</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>44448</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>44435.45611111111</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>44658</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>44788.92688657407</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>44417</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>44445</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>44607</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44281</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44341.63340277778</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>44362</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>44774.94194444444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44393</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44466</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44424</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44432.654375</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44329.91831018519</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>44648</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>44470</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>44365.38575231482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>44623.93768518518</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>44875.92814814814</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>44433</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>44510</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>44659</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>44530</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>44607</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>44312</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>44872</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>44602</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>44698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>44501</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>44348</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>44551</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>45231.92543981481</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>45575.4482175926</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8487,7 +8487,7 @@
         <v>45621.43038194445</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>44880</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>45622</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>44964</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>44603</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>45561</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8839,7 +8839,7 @@
         <v>45641.70442129629</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>45611</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>44890.94890046296</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>45231</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>45545</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>45691.61585648148</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>45643.53211805555</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9258,7 +9258,7 @@
         <v>45747</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>44960.94230324074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>45518.96950231482</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>45677</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>45677.43979166666</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>45622</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44435</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>45715</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>45463</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44477.53277777778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>44834</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>45597</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>45323</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>45371.97140046296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>45689.81684027778</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>45803</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>45803.62844907407</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>45244</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>45377</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44717</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>45807.41231481481</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>45807.41030092593</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>45807.41303240741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>45807.41424768518</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>45807</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>45443.63476851852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>45811.42734953704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>45807.41793981481</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>45811.42734953704</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>45460.40491898148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>45702</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>45810</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>45813</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>45813.34421296296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>45813.3452662037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>45813.34533564815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>45813.54103009259</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>45813.34443287037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>45890.62925925926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>44858.92932870371</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>45813.34540509259</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>45538.4608912037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>45558</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>45826.65725694445</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>45813.34469907408</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>45813.34486111111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>45842.63900462963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>45644</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>45817.52672453703</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44886</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>45469.38991898148</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>45429.64373842593</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>45818</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>45818.44586805555</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>45818.4499074074</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44958.94056712963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>45807.57351851852</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45692</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45819.34449074074</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44645</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>45819.34493055556</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>45588.51137731481</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>45818</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>45821.62474537037</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>45700</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>45821</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>45820.65793981482</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45820.66358796296</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>44329.94148148148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45180</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>45820.69231481481</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45820.67159722222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>45363</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         <v>45904.61815972222</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>45825.34456018519</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>45904</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>45688</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>44543</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>45824.69837962963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>45909.59103009259</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>45824.69834490741</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>45909.58847222223</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>45831</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>45831</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>45831</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>45909.55762731482</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>45824.28274305556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>45824.28693287037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>45831</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>45820.63310185185</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14623,7 +14623,7 @@
         <v>45911.69827546296</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>45911.36493055556</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>45826.67755787037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>45826.57212962963</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>45097</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>45005.48414351852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>45372.92877314815</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>45604</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>45917</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>45827.42748842593</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>45771.71935185185</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>45831</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>45831</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>45831</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45831</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45831.61511574074</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>45075</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>45831</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>45831</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         <v>45922</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>45608</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>45463</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>45460</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>44930</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16041,7 +16041,7 @@
         <v>45141</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>45644</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>45835.34453703704</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>45835.55337962963</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>45834.34450231482</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>45835.55673611111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>45834</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>45679.50635416667</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>45621.67932870371</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>45834.34546296296</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>45834</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45637.52493055556</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>45835.44841435185</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>45493.43340277778</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>45839.60887731481</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45838.65694444445</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>45838.65704861111</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>45837.68739583333</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>45839.36539351852</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>45838.49375</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>45839.37099537037</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>45837.67564814815</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>45837.7256712963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45933</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>45428</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45238.92782407408</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>45936.57395833333</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>45160.96331018519</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>45427.5741550926</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>45939</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17831,7 +17831,7 @@
         <v>45939</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
         <v>45840.67837962963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17950,7 +17950,7 @@
         <v>45840.63581018519</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18012,7 +18012,7 @@
         <v>45939</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18069,7 +18069,7 @@
         <v>44964.60572916667</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18126,7 +18126,7 @@
         <v>45251</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>45457</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>45940.34579861111</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>45943.40819444445</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45845.53149305555</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45671.52428240741</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45943.43152777778</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>45943</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>45189</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>45944.61768518519</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>45946</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>45947.34490740741</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>45463.94219907407</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>45947.34668981482</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>45189.5340162037</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>44993</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19068,7 +19068,7 @@
         <v>45133.92516203703</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>45951.46915509259</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>45950.53168981482</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>45950.53265046296</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>45950.44028935185</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         <v>45859.41423611111</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19425,7 +19425,7 @@
         <v>45951</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>45949.42743055556</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>44424</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>45953</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>44546</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>45869.56310185185</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19782,7 +19782,7 @@
         <v>45554</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>45957.67832175926</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>45869.5119212963</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19958,7 +19958,7 @@
         <v>45954</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>44993</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>45870</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>45870.65696759259</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>44502</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20258,7 +20258,7 @@
         <v>45873</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20315,7 +20315,7 @@
         <v>45958.42047453704</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>45593</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>45063.57871527778</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45070</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>44595</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20620,7 +20620,7 @@
         <v>45958.42353009259</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>45315.72337962963</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>44601.93563657408</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>45092</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45308.65068287037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>45880.45326388889</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>45964.44515046296</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21044,7 +21044,7 @@
         <v>45747</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21101,7 +21101,7 @@
         <v>45321</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21158,7 +21158,7 @@
         <v>45440</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21277,7 +21277,7 @@
         <v>45882.58475694444</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21339,7 +21339,7 @@
         <v>45882.59648148148</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21396,7 +21396,7 @@
         <v>45463</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21458,7 +21458,7 @@
         <v>45882.4696412037</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>45967</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>45882.65697916667</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45967</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>45882.42778935185</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>45882.42769675926</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>45882</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>44970.60267361111</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44897</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44547</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>45086</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>45594</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22182,7 +22182,7 @@
         <v>45471.45269675926</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22244,7 +22244,7 @@
         <v>45471.4519212963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         <v>45610.34540509259</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22368,7 +22368,7 @@
         <v>44469</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22425,7 +22425,7 @@
         <v>45981</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>45981</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>45980</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44950.94677083333</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>45379.93701388889</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22735,7 +22735,7 @@
         <v>45218</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>45266</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>45986.48284722222</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>46029.57380787037</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
         <v>46029</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23020,7 +23020,7 @@
         <v>46029.51079861111</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>45986.49460648148</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>45986.49826388889</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>45460</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>45607.41652777778</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
         <v>46029.44912037037</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>44910.92200231482</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>45986</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>45604</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44823</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44820</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>45631.71950231482</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>45988.60349537037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>44575</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>45992</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23895,7 +23895,7 @@
         <v>45993</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23957,7 +23957,7 @@
         <v>44797.6012962963</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>45513</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24081,7 +24081,7 @@
         <v>45709.3868287037</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24138,7 +24138,7 @@
         <v>45498</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24195,7 +24195,7 @@
         <v>45994.54037037037</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24252,7 +24252,7 @@
         <v>45994.4485300926</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24314,7 +24314,7 @@
         <v>45994.44859953703</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>45996</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>45308.66241898148</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>45999.47011574074</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>45999.57001157408</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>45643</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24661,7 +24661,7 @@
         <v>45999.44186342593</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44973.94396990741</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24780,7 +24780,7 @@
         <v>45588.51136574074</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24837,7 +24837,7 @@
         <v>45440</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>45996</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>45999.43054398148</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>45379.92288194445</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>45999.59505787037</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>45999.44849537037</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>46042.38613425926</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>46042.60581018519</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25298,7 +25298,7 @@
         <v>46001.51085648148</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25360,7 +25360,7 @@
         <v>45513.67081018518</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25422,7 +25422,7 @@
         <v>45709.4059837963</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25479,7 +25479,7 @@
         <v>46042</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>46002.55268518518</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>45639</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>46048.59960648148</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>45622</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>46048.59770833333</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         <v>45181</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25883,7 +25883,7 @@
         <v>45807</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>46009.67767361111</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26007,7 +26007,7 @@
         <v>46009.67759259259</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26069,7 +26069,7 @@
         <v>46009.59440972222</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26126,7 +26126,7 @@
         <v>45693.42834490741</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         <v>46052</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26245,7 +26245,7 @@
         <v>44899</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26302,7 +26302,7 @@
         <v>45709.39804398148</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26359,7 +26359,7 @@
         <v>45644</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26416,7 +26416,7 @@
         <v>45540</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26473,7 +26473,7 @@
         <v>46052</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26530,7 +26530,7 @@
         <v>45281</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26592,7 +26592,7 @@
         <v>45154.39217592592</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26649,7 +26649,7 @@
         <v>46055.61430555556</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         <v>45643.61626157408</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26763,7 +26763,7 @@
         <v>45562.3905787037</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26820,7 +26820,7 @@
         <v>46013.59417824074</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26877,7 +26877,7 @@
         <v>45429</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26939,7 +26939,7 @@
         <v>46010.53060185185</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26996,7 +26996,7 @@
         <v>46013</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27053,7 +27053,7 @@
         <v>46013.41849537037</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27110,7 +27110,7 @@
         <v>45622</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27167,7 +27167,7 @@
         <v>46048</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27224,7 +27224,7 @@
         <v>45463.94173611111</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27286,7 +27286,7 @@
         <v>45712</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27343,7 +27343,7 @@
         <v>46059.53188657408</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44546</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>45453.35445601852</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>45548</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         <v>46059.53196759259</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27648,7 +27648,7 @@
         <v>45513</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>45009</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>45548</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27829,7 +27829,7 @@
         <v>45604</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27886,7 +27886,7 @@
         <v>44938.93743055555</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>45691.67776620371</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>45189</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28067,7 +28067,7 @@
         <v>45659</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28124,7 +28124,7 @@
         <v>45534</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28186,7 +28186,7 @@
         <v>44347</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         <v>45518.97159722223</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28305,7 +28305,7 @@
         <v>45747.39802083333</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28362,7 +28362,7 @@
         <v>45699.55261574074</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>44966</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>45205</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>45334</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>45621</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>45699.55245370371</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>44966.50604166667</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>44539</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>45321</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>45107.93931712963</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28947,7 +28947,7 @@
         <v>44543</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29004,7 +29004,7 @@
         <v>45404.96539351852</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>45436.40979166667</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>45448</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29185,7 +29185,7 @@
         <v>45667.55340277778</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29242,7 +29242,7 @@
         <v>45401.62734953704</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29299,7 +29299,7 @@
         <v>45442</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29361,7 +29361,7 @@
         <v>44960</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29423,7 +29423,7 @@
         <v>44817</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29485,7 +29485,7 @@
         <v>45757</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29542,7 +29542,7 @@
         <v>45539</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>44446</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>45223</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29718,7 +29718,7 @@
         <v>45603.44780092593</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>45603</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29842,7 +29842,7 @@
         <v>45603.44855324074</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>44433.58289351852</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>45693.51137731481</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         <v>45315.72113425926</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>45775.44878472222</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>45621.57475694444</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>45744.4612037037</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>45631</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>45771</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30380,7 +30380,7 @@
         <v>45268</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30442,7 +30442,7 @@
         <v>45208</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30504,7 +30504,7 @@
         <v>45548</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30566,7 +30566,7 @@
         <v>45602</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30628,7 +30628,7 @@
         <v>45169.62248842593</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30685,7 +30685,7 @@
         <v>45551</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30747,7 +30747,7 @@
         <v>45153</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30804,7 +30804,7 @@
         <v>45611.34413194445</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         <v>45107.93924768519</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30928,7 +30928,7 @@
         <v>45076</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30990,7 +30990,7 @@
         <v>45429.64071759259</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31052,7 +31052,7 @@
         <v>45510</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31114,7 +31114,7 @@
         <v>45593.38583333333</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31176,7 +31176,7 @@
         <v>45692.61486111111</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31238,7 +31238,7 @@
         <v>45693.51109953703</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31300,7 +31300,7 @@
         <v>45520.56951388889</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31362,7 +31362,7 @@
         <v>45777.5672337963</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31424,7 +31424,7 @@
         <v>45779.48663194444</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31486,7 +31486,7 @@
         <v>45779</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31543,7 +31543,7 @@
         <v>45782</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31605,7 +31605,7 @@
         <v>45782</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31667,7 +31667,7 @@
         <v>45782</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31729,7 +31729,7 @@
         <v>44417</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31786,7 +31786,7 @@
         <v>45783</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         <v>45785</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31900,7 +31900,7 @@
         <v>45789.55678240741</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31957,7 +31957,7 @@
         <v>45789</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32014,7 +32014,7 @@
         <v>45793</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>45793.67989583333</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32138,7 +32138,7 @@
         <v>45793.67730324074</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32200,7 +32200,7 @@
         <v>45793</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>45796</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32324,7 +32324,7 @@
         <v>45796.64229166666</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         <v>45467.76189814815</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32443,7 +32443,7 @@
         <v>45796.6446412037</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>

--- a/Översikt ÖVERKALIX.xlsx
+++ b/Översikt ÖVERKALIX.xlsx
@@ -575,7 +575,7 @@
         <v>45958</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>46059.55278935185</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>45534</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>45946</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -993,7 +993,7 @@
         <v>45544</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>45894</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>45163.65806712963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>45211.46008101852</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>45310</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>45874.64776620371</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>45671</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45922</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44463</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44596</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>45544</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45758.55125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45170</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>45908.61506944444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>45478</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>45908</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45831.35403935185</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>45922</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>45769</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>46009.44835648148</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>45154</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>45534</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>44645</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>44658</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>45805.64427083333</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>45807.41697916666</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>44809.62597222222</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>45894.51512731481</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>45622</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>45904.6202662037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>45909.56116898148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>45831.36143518519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>45926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>45835.66175925926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>45838</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>45540</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45581</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>45581</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>45849.55521990741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>45859.30603009259</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>44966</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>45174</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>45520</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>46057</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>45540</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>45450</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>45588.4158912037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5271,7 +5271,7 @@
         <v>44496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>44356</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>44582</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>44550</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>44438</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>44718</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44386.91877314815</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44244</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>44551</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>44374</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>44330.35358796296</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>44711</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>44717</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>44755.41444444445</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>44602.92184027778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>44424</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>44466.93474537037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44862</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>44448</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>44435.45611111111</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>44658</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>44788.92688657407</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>44417</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>44445</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>44607</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44281</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>44341.63340277778</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>44362</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>44774.94194444444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44393</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44466</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44424</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44432.654375</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44329.91831018519</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>44648</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>44470</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7421,7 +7421,7 @@
         <v>44365.38575231482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>44623.93768518518</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>44875.92814814814</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>44433</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>44510</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>44659</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>44530</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>44607</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>44312</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7959,7 +7959,7 @@
         <v>44872</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>44602</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>44698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44698</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>44501</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>44348</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>44551</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>45231.92543981481</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>45575.4482175926</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8487,7 +8487,7 @@
         <v>45621.43038194445</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>44880</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>45622</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>44964</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>44603</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
         <v>45561</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8839,7 +8839,7 @@
         <v>45641.70442129629</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>45611</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>44890.94890046296</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>45231</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>45545</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>45691.61585648148</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>45643.53211805555</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9258,7 +9258,7 @@
         <v>45747</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>44960.94230324074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>45518.96950231482</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>45677</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>45677.43979166666</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>45622</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44435</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>45715</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>45463</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
         <v>44477.53277777778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>44834</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>45597</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>45323</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>45371.97140046296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>45689.81684027778</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>45803</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>45803.62844907407</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>45244</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>45377</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44717</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>45807.41231481481</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>45807.41030092593</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>45807.41303240741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>45807.41424768518</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>45807</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>45443.63476851852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>45811.42734953704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>45807.41793981481</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10929,7 +10929,7 @@
         <v>45811.42734953704</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>45460.40491898148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>45702</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>45810</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>45813</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>45813.34421296296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>45813.3452662037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>45813.34533564815</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>45813.54103009259</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>45813.34443287037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>45890.62925925926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>44858.92932870371</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>45813.34540509259</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>45538.4608912037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         <v>45558</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>45826.65725694445</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>45813.34469907408</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>45813.34486111111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>45842.63900462963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>45644</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>45817.52672453703</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44886</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>45469.38991898148</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>45429.64373842593</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>45818</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>45818.44586805555</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>45818.4499074074</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44958.94056712963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>45807.57351851852</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45692</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45819.34449074074</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44645</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>45819.34493055556</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>45588.51137731481</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>45818</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>45821.62474537037</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>45700</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>45821</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>45820.65793981482</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45820.66358796296</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>44329.94148148148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45180</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>45820.69231481481</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45820.67159722222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>45363</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         <v>45904.61815972222</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>45825.34456018519</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>45904</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>45688</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13857,7 +13857,7 @@
         <v>44543</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>45824.69837962963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>45909.59103009259</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>45824.69834490741</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>45909.58847222223</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>45831</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>45831</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>45831</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>45909.55762731482</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>45824.28274305556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>45824.28693287037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>45831</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>45820.63310185185</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14623,7 +14623,7 @@
         <v>45911.69827546296</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>45911.36493055556</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>45826.67755787037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>45826.57212962963</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>45097</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>45005.48414351852</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>45372.92877314815</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>45604</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>45917</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>45827.42748842593</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>45771.71935185185</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>45831</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>45831</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>45831</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45831</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45831.61511574074</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>45075</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15627,7 +15627,7 @@
         <v>45831</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>45831</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         <v>45922</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>45608</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>45463</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         <v>45460</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         <v>44930</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16041,7 +16041,7 @@
         <v>45141</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>45644</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>45835.34453703704</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16217,7 +16217,7 @@
         <v>45835.55337962963</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16279,7 +16279,7 @@
         <v>45834.34450231482</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>45835.55673611111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16403,7 +16403,7 @@
         <v>45834</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16460,7 +16460,7 @@
         <v>45679.50635416667</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16517,7 +16517,7 @@
         <v>45621.67932870371</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16574,7 +16574,7 @@
         <v>45834.34546296296</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16636,7 +16636,7 @@
         <v>45834</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         <v>45637.52493055556</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>45835.44841435185</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         <v>45493.43340277778</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16869,7 +16869,7 @@
         <v>45839.60887731481</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45838.65694444445</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>45838.65704861111</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>45837.68739583333</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>45839.36539351852</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>45838.49375</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>45839.37099537037</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>45837.67564814815</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17350,7 +17350,7 @@
         <v>45837.7256712963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17407,7 +17407,7 @@
         <v>45933</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>45428</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45238.92782407408</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>45936.57395833333</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         <v>45160.96331018519</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17712,7 +17712,7 @@
         <v>45427.5741550926</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>45939</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17831,7 +17831,7 @@
         <v>45939</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
         <v>45840.67837962963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17950,7 +17950,7 @@
         <v>45840.63581018519</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18012,7 +18012,7 @@
         <v>45939</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18069,7 +18069,7 @@
         <v>44964.60572916667</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18126,7 +18126,7 @@
         <v>45251</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>45457</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18245,7 +18245,7 @@
         <v>45940.34579861111</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>45943.40819444445</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>45845.53149305555</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>45671.52428240741</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45943.43152777778</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>45943</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>45189</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>45944.61768518519</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>45946</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>45947.34490740741</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>45463.94219907407</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>45947.34668981482</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>45189.5340162037</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>44993</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19068,7 +19068,7 @@
         <v>45133.92516203703</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>45951.46915509259</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>45950.53168981482</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>45950.53265046296</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>45950.44028935185</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         <v>45859.41423611111</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19425,7 +19425,7 @@
         <v>45951</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>45949.42743055556</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19549,7 +19549,7 @@
         <v>44424</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19606,7 +19606,7 @@
         <v>45953</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>44546</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>45869.56310185185</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19782,7 +19782,7 @@
         <v>45554</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>45957.67832175926</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>45869.5119212963</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19958,7 +19958,7 @@
         <v>45954</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20020,7 +20020,7 @@
         <v>44993</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20077,7 +20077,7 @@
         <v>45870</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>45870.65696759259</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>44502</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20258,7 +20258,7 @@
         <v>45873</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20315,7 +20315,7 @@
         <v>45958.42047453704</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>45593</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>45063.57871527778</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45070</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>44595</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20620,7 +20620,7 @@
         <v>45958.42353009259</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>45315.72337962963</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>44601.93563657408</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>45092</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45308.65068287037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>45880.45326388889</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>45964.44515046296</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21044,7 +21044,7 @@
         <v>45747</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21101,7 +21101,7 @@
         <v>45321</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21158,7 +21158,7 @@
         <v>45440</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21277,7 +21277,7 @@
         <v>45882.58475694444</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21339,7 +21339,7 @@
         <v>45882.59648148148</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21396,7 +21396,7 @@
         <v>45463</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21458,7 +21458,7 @@
         <v>45882.4696412037</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>45967</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>45882.65697916667</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>45967</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>45882.42778935185</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>45882.42769675926</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>45882</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>44970.60267361111</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44897</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44547</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>45086</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>45594</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22182,7 +22182,7 @@
         <v>45471.45269675926</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22244,7 +22244,7 @@
         <v>45471.4519212963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         <v>45610.34540509259</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22368,7 +22368,7 @@
         <v>44469</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22425,7 +22425,7 @@
         <v>45981</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22487,7 +22487,7 @@
         <v>45981</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>45980</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>44950.94677083333</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>45379.93701388889</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22735,7 +22735,7 @@
         <v>45218</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>45266</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>45986.48284722222</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         <v>46029.57380787037</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22963,7 +22963,7 @@
         <v>46029</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23020,7 +23020,7 @@
         <v>46029.51079861111</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23077,7 +23077,7 @@
         <v>45986.49460648148</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23134,7 +23134,7 @@
         <v>45986.49826388889</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>45460</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>45607.41652777778</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
         <v>46029.44912037037</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>44910.92200231482</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>45986</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>45604</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44823</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44820</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>45631.71950231482</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>45988.60349537037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23776,7 +23776,7 @@
         <v>44575</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23833,7 +23833,7 @@
         <v>45992</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23895,7 +23895,7 @@
         <v>45993</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23957,7 +23957,7 @@
         <v>44797.6012962963</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>45513</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24081,7 +24081,7 @@
         <v>45709.3868287037</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24138,7 +24138,7 @@
         <v>45498</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24195,7 +24195,7 @@
         <v>45994.54037037037</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24252,7 +24252,7 @@
         <v>45994.4485300926</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24314,7 +24314,7 @@
         <v>45994.44859953703</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>45996</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>45308.66241898148</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>45999.47011574074</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>45999.57001157408</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>45643</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24661,7 +24661,7 @@
         <v>45999.44186342593</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44973.94396990741</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24780,7 +24780,7 @@
         <v>45588.51136574074</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24837,7 +24837,7 @@
         <v>45440</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>45996</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>45999.43054398148</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>45379.92288194445</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>45999.59505787037</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>45999.44849537037</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>46042.38613425926</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>46042.60581018519</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25298,7 +25298,7 @@
         <v>46001.51085648148</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25360,7 +25360,7 @@
         <v>45513.67081018518</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25422,7 +25422,7 @@
         <v>45709.4059837963</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25479,7 +25479,7 @@
         <v>46042</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25536,7 +25536,7 @@
         <v>46002.55268518518</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>45639</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>46048.59960648148</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25712,7 +25712,7 @@
         <v>45622</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25769,7 +25769,7 @@
         <v>46048.59770833333</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         <v>45181</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25883,7 +25883,7 @@
         <v>45807</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25945,7 +25945,7 @@
         <v>46009.67767361111</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26007,7 +26007,7 @@
         <v>46009.67759259259</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26069,7 +26069,7 @@
         <v>46009.59440972222</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26126,7 +26126,7 @@
         <v>45693.42834490741</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26188,7 +26188,7 @@
         <v>46052</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26245,7 +26245,7 @@
         <v>44899</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26302,7 +26302,7 @@
         <v>45709.39804398148</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26359,7 +26359,7 @@
         <v>45644</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26416,7 +26416,7 @@
         <v>45540</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26473,7 +26473,7 @@
         <v>46052</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26530,7 +26530,7 @@
         <v>45281</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26592,7 +26592,7 @@
         <v>45154.39217592592</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26649,7 +26649,7 @@
         <v>46055.61430555556</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         <v>45643.61626157408</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26763,7 +26763,7 @@
         <v>45562.3905787037</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26820,7 +26820,7 @@
         <v>46013.59417824074</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26877,7 +26877,7 @@
         <v>45429</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26939,7 +26939,7 @@
         <v>46010.53060185185</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26996,7 +26996,7 @@
         <v>46013</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27053,7 +27053,7 @@
         <v>46013.41849537037</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27110,7 +27110,7 @@
         <v>45622</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27167,7 +27167,7 @@
         <v>46048</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27224,7 +27224,7 @@
         <v>45463.94173611111</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27286,7 +27286,7 @@
         <v>45712</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27343,7 +27343,7 @@
         <v>46059.53188657408</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44546</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>45453.35445601852</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>45548</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         <v>46059.53196759259</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27648,7 +27648,7 @@
         <v>45513</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>45009</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>45548</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27829,7 +27829,7 @@
         <v>45604</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27886,7 +27886,7 @@
         <v>44938.93743055555</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>45691.67776620371</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28010,7 +28010,7 @@
         <v>45189</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28067,7 +28067,7 @@
         <v>45659</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28124,7 +28124,7 @@
         <v>45534</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28186,7 +28186,7 @@
         <v>44347</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         <v>45518.97159722223</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28305,7 +28305,7 @@
         <v>45747.39802083333</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28362,7 +28362,7 @@
         <v>45699.55261574074</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>44966</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>45205</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>45334</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>45621</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>45699.55245370371</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28714,7 +28714,7 @@
         <v>44966.50604166667</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28771,7 +28771,7 @@
         <v>44539</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28828,7 +28828,7 @@
         <v>45321</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28885,7 +28885,7 @@
         <v>45107.93931712963</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28947,7 +28947,7 @@
         <v>44543</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29004,7 +29004,7 @@
         <v>45404.96539351852</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         <v>45436.40979166667</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>45448</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29185,7 +29185,7 @@
         <v>45667.55340277778</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29242,7 +29242,7 @@
         <v>45401.62734953704</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29299,7 +29299,7 @@
         <v>45442</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29361,7 +29361,7 @@
         <v>44960</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29423,7 +29423,7 @@
         <v>44817</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29485,7 +29485,7 @@
         <v>45757</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29542,7 +29542,7 @@
         <v>45539</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>44446</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>45223</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29718,7 +29718,7 @@
         <v>45603.44780092593</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>45603</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29842,7 +29842,7 @@
         <v>45603.44855324074</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>44433.58289351852</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>45693.51137731481</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         <v>45315.72113425926</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>45775.44878472222</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>45621.57475694444</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>45744.4612037037</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>45631</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>45771</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30380,7 +30380,7 @@
         <v>45268</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30442,7 +30442,7 @@
         <v>45208</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30504,7 +30504,7 @@
         <v>45548</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30566,7 +30566,7 @@
         <v>45602</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30628,7 +30628,7 @@
         <v>45169.62248842593</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30685,7 +30685,7 @@
         <v>45551</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30747,7 +30747,7 @@
         <v>45153</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30804,7 +30804,7 @@
         <v>45611.34413194445</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         <v>45107.93924768519</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30928,7 +30928,7 @@
         <v>45076</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30990,7 +30990,7 @@
         <v>45429.64071759259</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31052,7 +31052,7 @@
         <v>45510</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31114,7 +31114,7 @@
         <v>45593.38583333333</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31176,7 +31176,7 @@
         <v>45692.61486111111</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31238,7 +31238,7 @@
         <v>45693.51109953703</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31300,7 +31300,7 @@
         <v>45520.56951388889</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31362,7 +31362,7 @@
         <v>45777.5672337963</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31424,7 +31424,7 @@
         <v>45779.48663194444</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31486,7 +31486,7 @@
         <v>45779</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31543,7 +31543,7 @@
         <v>45782</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31605,7 +31605,7 @@
         <v>45782</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31667,7 +31667,7 @@
         <v>45782</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31729,7 +31729,7 @@
         <v>44417</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31786,7 +31786,7 @@
         <v>45783</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         <v>45785</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31900,7 +31900,7 @@
         <v>45789.55678240741</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31957,7 +31957,7 @@
         <v>45789</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32014,7 +32014,7 @@
         <v>45793</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32076,7 +32076,7 @@
         <v>45793.67989583333</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32138,7 +32138,7 @@
         <v>45793.67730324074</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32200,7 +32200,7 @@
         <v>45793</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>45796</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32324,7 +32324,7 @@
         <v>45796.64229166666</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         <v>45467.76189814815</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32443,7 +32443,7 @@
         <v>45796.6446412037</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>

--- a/Översikt ÖVERKALIX.xlsx
+++ b/Översikt ÖVERKALIX.xlsx
@@ -575,7 +575,7 @@
         <v>45958</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>46059.55278935185</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>45534</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>45946</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -993,7 +993,7 @@
         <v>45544</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>45894</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>45163.65806712963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>45211.46008101852</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>45310</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>45874.64776620371</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>45671</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45922</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44463</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44596</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>45544</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45758.55125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45170</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>45478</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>45831.35403935185</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45908.61506944444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>45908</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>45922</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>45769</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>46009.44835648148</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>45154</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>45534</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>44645</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>44658</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>44809.62597222222</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>45622</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>45894.51512731481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>45831.36143518519</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>45835.66175925926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>45838</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>45904.6202662037</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>45909.56116898148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>45849.55521990741</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>45540</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>45859.30603009259</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45581</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>45581</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>44966</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>45174</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>45520</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>46057</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>45540</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>45450</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>45588.4158912037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>44496</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>45805.64427083333</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5271,7 +5271,7 @@
         <v>45807.41697916666</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>44356</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>44550</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>44438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>44718</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>44582</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44386.91877314815</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44551</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>44374</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>44330.35358796296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>44711</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>44717</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>44755.41444444445</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44602.92184027778</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>44424</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>44466.93474537037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44448</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44862</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>44658</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>44435.45611111111</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>44788.92688657407</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>44417</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>44445</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>44607</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44281</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44341.63340277778</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>44362</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>44774.94194444444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44393</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44466</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44424</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44329.91831018519</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44432.654375</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44648</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>44470</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>44623.93768518518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>44365.38575231482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>44875.92814814814</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>44433</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>44510</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>44659</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>44530</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>44607</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>44312</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>44872</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44602</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>44698</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>44698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44501</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>44348</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>44551</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>45231.92543981481</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>45575.4482175926</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>45622</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8487,7 +8487,7 @@
         <v>45621.43038194445</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>44603</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>44880</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>44964</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>45561</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8782,7 +8782,7 @@
         <v>45641.70442129629</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8839,7 +8839,7 @@
         <v>45611</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>44890.94890046296</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>45231</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>45643.53211805555</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>45545</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>45691.61585648148</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>44960.94230324074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>45518.96950231482</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>45677</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>45677.43979166666</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>45622</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44435</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>45715</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>45463</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>44477.53277777778</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>44834</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>45689.81684027778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>45597</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>45371.97140046296</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>45747</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>45244</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>44717</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>45443.63476851852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>45702</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>45460.40491898148</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>45818</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>45818.44586805555</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>45818.4499074074</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>44886</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>45819.34449074074</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>45819.34493055556</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>45818</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>45469.38991898148</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>45429.64373842593</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10847,7 +10847,7 @@
         <v>45821.62474537037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10904,7 +10904,7 @@
         <v>45821</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>45820.65793981482</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>44958.94056712963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>45820.66358796296</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>45820.69231481481</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>45820.67159722222</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>45588.51137731481</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>45825.34456018519</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>45824.69837962963</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>45807.41793981481</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>45824.69834490741</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>45180</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>45363</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>45824.28274305556</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>45824.28693287037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>45826.67755787037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>45688</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>45890.62925925926</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>45826.57212962963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44858.92932870371</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>45538.4608912037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45558</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>45826.65725694445</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>44543</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>45842.63900462963</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12424,7 +12424,7 @@
         <v>45644</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12481,7 +12481,7 @@
         <v>45827.42748842593</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>45831</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>45831</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>45831</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45831</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>45831.61511574074</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>45831</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         <v>45831</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>45097</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>45005.48414351852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>45372.92877314815</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>45807.57351851852</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>45692</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44645</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>45604</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>45835.34453703704</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>45771.71935185185</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>45835.55337962963</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>45834.34450231482</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>45835.55673611111</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>45834</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>45700</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>45621.67932870371</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>45834.34546296296</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>45834</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44329.94148148148</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>45835.44841435185</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45839.60887731481</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>45075</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>45838.65694444445</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>45838.65704861111</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>45904.61815972222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>45837.68739583333</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>45839.36539351852</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>45904</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>45838.49375</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>45839.37099537037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>45837.67564814815</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>45837.7256712963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>45608</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>45463</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>45909.59103009259</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>45909.58847222223</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>45831</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>45460</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>44930</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>45831</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>45831</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>45909.55762731482</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>45831</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>45840.67837962963</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>45141</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>45840.63581018519</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>45820.63310185185</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15664,7 +15664,7 @@
         <v>45911.69827546296</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>45911.36493055556</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>45644</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>45845.53149305555</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>45679.50635416667</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>45917</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16016,7 +16016,7 @@
         <v>45637.52493055556</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16073,7 +16073,7 @@
         <v>45493.43340277778</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16130,7 +16130,7 @@
         <v>44993</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>45922</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>45859.41423611111</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>45428</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>45238.92782407408</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44424</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>45160.96331018519</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>45427.5741550926</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>45869.56310185185</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
         <v>44964.60572916667</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>45869.5119212963</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>45251</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>45457</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>45870</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>45870.65696759259</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>45873</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>45671.52428240741</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>45189</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>45933</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>45463.94219907407</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>45189.5340162037</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>45880.45326388889</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>45133.92516203703</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>45936.57395833333</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>45747</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>45882.58475694444</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>45882.59648148148</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>45882.4696412037</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>45882.65697916667</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>45882.42778935185</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>45882.42769675926</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>45882</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>45939</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>45939</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>45939</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44546</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>45554</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>45940.34579861111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45943.40819444445</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>45086</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>45943.43152777778</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>45943</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>44993</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44502</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>45593</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>45944.61768518519</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>45063.57871527778</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>45070</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18971,7 +18971,7 @@
         <v>44595</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>45946</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19095,7 +19095,7 @@
         <v>45947.34490740741</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19157,7 +19157,7 @@
         <v>45947.34668981482</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>45315.72337962963</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>45951.46915509259</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>45950.53168981482</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>45950.53265046296</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>44601.93563657408</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>45950.44028935185</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>45951</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
         <v>45092</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>45949.42743055556</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>45308.65068287037</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>45953</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>45321</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>45957.67832175926</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19995,7 +19995,7 @@
         <v>45440</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>44830</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>45463</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20176,7 +20176,7 @@
         <v>45954</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
         <v>45958.42047453704</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>45958.42353009259</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>44970.60267361111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>44897</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>44547</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>45594</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>45964.44515046296</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>45471.45269675926</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45471.4519212963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>45967</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>45610.34540509259</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>45967</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20972,7 +20972,7 @@
         <v>44469</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21029,7 +21029,7 @@
         <v>44950.94677083333</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>45379.93701388889</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>45218</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>45266</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21267,7 +21267,7 @@
         <v>45460</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>45607.41652777778</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44910.92200231482</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>45604</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21500,7 +21500,7 @@
         <v>45981</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>45981</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21624,7 +21624,7 @@
         <v>45980</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21686,7 +21686,7 @@
         <v>45631.71950231482</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21743,7 +21743,7 @@
         <v>44575</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21800,7 +21800,7 @@
         <v>45986.48284722222</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21857,7 +21857,7 @@
         <v>45986.49460648148</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>45986.49826388889</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21971,7 +21971,7 @@
         <v>45986</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22028,7 +22028,7 @@
         <v>44797.6012962963</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22090,7 +22090,7 @@
         <v>44823</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22152,7 +22152,7 @@
         <v>44820</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45513</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         <v>45988.60349537037</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
         <v>45992</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>45709.3868287037</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
         <v>45993</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         <v>45498</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22571,7 +22571,7 @@
         <v>45308.66241898148</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22628,7 +22628,7 @@
         <v>45643</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22685,7 +22685,7 @@
         <v>44973.94396990741</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>45588.51136574074</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22804,7 +22804,7 @@
         <v>45440</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>45994.54037037037</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>45994.4485300926</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>45994.44859953703</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>45379.92288194445</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23104,7 +23104,7 @@
         <v>45996</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
         <v>45999.47011574074</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
         <v>45999.57001157408</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         <v>45999.44186342593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23332,7 +23332,7 @@
         <v>45996</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>45999.43054398148</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23446,7 +23446,7 @@
         <v>45999.59505787037</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23503,7 +23503,7 @@
         <v>45999.44849537037</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23560,7 +23560,7 @@
         <v>46042.38613425926</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23617,7 +23617,7 @@
         <v>46042.60581018519</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>45513.67081018518</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>46001.51085648148</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>45709.4059837963</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>45639</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>46042</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>46002.55268518518</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>45622</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>45181</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>46048.59960648148</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>46048.59770833333</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>45693.42834490741</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24321,7 +24321,7 @@
         <v>44899</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24378,7 +24378,7 @@
         <v>45709.39804398148</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24435,7 +24435,7 @@
         <v>45644</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>45540</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24549,7 +24549,7 @@
         <v>45807</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24611,7 +24611,7 @@
         <v>45281</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>46009.67767361111</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>46009.67759259259</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>46009.59440972222</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>45154.39217592592</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>45643.61626157408</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>45562.3905787037</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         <v>45429</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>46052</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>46052</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>45622</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>46055.61430555556</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>46013.59417824074</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>46010.53060185185</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>46013</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>46013.41849537037</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>45463.94173611111</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>44546</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>45453.35445601852</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>45548</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>46048</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>45712</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>46059.53188657408</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>46059.53196759259</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26024,7 +26024,7 @@
         <v>45513</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26086,7 +26086,7 @@
         <v>45009</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26143,7 +26143,7 @@
         <v>45548</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>45604</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44938.93743055555</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26324,7 +26324,7 @@
         <v>45691.67776620371</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>45189</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>45659</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>45534</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>46029.44912037037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>46029.57380787037</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>46029</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>46029.51079861111</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>44347</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>45518.97159722223</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26909,7 +26909,7 @@
         <v>45747.39802083333</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26966,7 +26966,7 @@
         <v>45699.55261574074</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>44966</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>45205</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27142,7 +27142,7 @@
         <v>45334</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27199,7 +27199,7 @@
         <v>45621</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27256,7 +27256,7 @@
         <v>45699.55245370371</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>44966.50604166667</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27375,7 +27375,7 @@
         <v>44539</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27432,7 +27432,7 @@
         <v>45321</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>45107.93931712963</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>44543</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>45404.96539351852</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>45436.40979166667</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>45448</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27789,7 +27789,7 @@
         <v>45667.55340277778</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>45401.62734953704</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27903,7 +27903,7 @@
         <v>45442</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27965,7 +27965,7 @@
         <v>44960</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44817</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>45757</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         <v>45539</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28208,7 +28208,7 @@
         <v>44446</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28265,7 +28265,7 @@
         <v>45223</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28322,7 +28322,7 @@
         <v>45603.44780092593</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28384,7 +28384,7 @@
         <v>45603</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28446,7 +28446,7 @@
         <v>45603.44855324074</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>44433.58289351852</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28570,7 +28570,7 @@
         <v>45693.51137731481</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>45315.72113425926</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>45775.44878472222</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28751,7 +28751,7 @@
         <v>45621.57475694444</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28808,7 +28808,7 @@
         <v>45744.4612037037</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28865,7 +28865,7 @@
         <v>45631</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28922,7 +28922,7 @@
         <v>45771</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28984,7 +28984,7 @@
         <v>45268</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29046,7 +29046,7 @@
         <v>45208</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29108,7 +29108,7 @@
         <v>45548</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>45602</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         <v>45169.62248842593</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29289,7 +29289,7 @@
         <v>45551</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>45153</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>45611.34413194445</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29470,7 +29470,7 @@
         <v>45107.93924768519</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29532,7 +29532,7 @@
         <v>45076</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29594,7 +29594,7 @@
         <v>45429.64071759259</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29656,7 +29656,7 @@
         <v>45510</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29718,7 +29718,7 @@
         <v>45593.38583333333</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>45692.61486111111</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29842,7 +29842,7 @@
         <v>45693.51109953703</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>45520.56951388889</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>45777.5672337963</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         <v>45779.48663194444</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>45779</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>45782</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30209,7 +30209,7 @@
         <v>45782</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30271,7 +30271,7 @@
         <v>45782</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30333,7 +30333,7 @@
         <v>44417</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30390,7 +30390,7 @@
         <v>45783</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30447,7 +30447,7 @@
         <v>45785</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30504,7 +30504,7 @@
         <v>45789.55678240741</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30561,7 +30561,7 @@
         <v>45789</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30618,7 +30618,7 @@
         <v>45793</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30680,7 +30680,7 @@
         <v>45793.67989583333</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30742,7 +30742,7 @@
         <v>45793.67730324074</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30804,7 +30804,7 @@
         <v>45793</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         <v>45796</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30928,7 +30928,7 @@
         <v>45796.64229166666</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30990,7 +30990,7 @@
         <v>45467.76189814815</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>45796.6446412037</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>45323</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31166,7 +31166,7 @@
         <v>45803</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31228,7 +31228,7 @@
         <v>45803.62844907407</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31290,7 +31290,7 @@
         <v>45377</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>45807.41231481481</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>45807.41030092593</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31471,7 +31471,7 @@
         <v>45807.41303240741</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31533,7 +31533,7 @@
         <v>45807.41424768518</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>45807</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31657,7 +31657,7 @@
         <v>45811.42734953704</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31714,7 +31714,7 @@
         <v>45811.42734953704</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         <v>45810</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31833,7 +31833,7 @@
         <v>45813</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31895,7 +31895,7 @@
         <v>45813.34421296296</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31957,7 +31957,7 @@
         <v>45813.3452662037</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>45813.34533564815</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32081,7 +32081,7 @@
         <v>45813.54103009259</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32138,7 +32138,7 @@
         <v>45813.34443287037</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32200,7 +32200,7 @@
         <v>45813.34540509259</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>45813.34469907408</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32324,7 +32324,7 @@
         <v>45813.34486111111</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         <v>45817.52672453703</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>

--- a/Översikt ÖVERKALIX.xlsx
+++ b/Översikt ÖVERKALIX.xlsx
@@ -575,7 +575,7 @@
         <v>45958</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>46059.55278935185</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>45534</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>45946</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -993,7 +993,7 @@
         <v>45544</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>45894</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>45163.65806712963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>45211.46008101852</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>45310</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>45874.64776620371</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>45671</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45922</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44463</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44596</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>45544</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45758.55125</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45170</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>45478</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>45831.35403935185</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>45908.61506944444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>45908</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>45922</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>45769</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>46009.44835648148</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>45154</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>45534</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>44645</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>44658</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>44809.62597222222</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>45622</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>45894.51512731481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>45831.36143518519</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>45835.66175925926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>45838</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         <v>45904.6202662037</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>45909.56116898148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>45849.55521990741</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>45540</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>45859.30603009259</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4198,7 +4198,7 @@
         <v>45926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45581</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>45581</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         <v>44966</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>45174</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         <v>45520</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>46057</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>45540</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>45450</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>45588.4158912037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>44496</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>45805.64427083333</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5271,7 +5271,7 @@
         <v>45807.41697916666</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>44356</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>44550</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>44438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>44718</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>44582</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44386.91877314815</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44551</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>44374</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>44330.35358796296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>44711</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>44717</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>44755.41444444445</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44602.92184027778</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>44424</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>44466.93474537037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44448</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44862</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>44658</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>44435.45611111111</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>44788.92688657407</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>44417</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>44445</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>44607</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44281</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44341.63340277778</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>44362</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>44774.94194444444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44393</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44466</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44424</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44329.91831018519</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44432.654375</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44648</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>44470</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>44623.93768518518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>44365.38575231482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>44875.92814814814</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>44433</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>44510</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>44659</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>44530</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>44607</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>44312</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>44872</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44602</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>44698</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>44698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44501</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>44348</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>44551</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>45231.92543981481</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>45575.4482175926</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>45622</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8487,7 +8487,7 @@
         <v>45621.43038194445</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>44603</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>44880</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>44964</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>45561</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8782,7 +8782,7 @@
         <v>45641.70442129629</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8839,7 +8839,7 @@
         <v>45611</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>44890.94890046296</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>45231</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>45643.53211805555</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>45545</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>45691.61585648148</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>44960.94230324074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>45518.96950231482</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>45677</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>45677.43979166666</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>45622</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44435</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>45715</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>45463</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>44477.53277777778</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>44834</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>45689.81684027778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>45597</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>45371.97140046296</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>45747</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>45244</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>44717</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>45443.63476851852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>45702</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>45460.40491898148</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>45818</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>45818.44586805555</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>45818.4499074074</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>44886</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>45819.34449074074</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>45819.34493055556</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>45818</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>45469.38991898148</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>45429.64373842593</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10847,7 +10847,7 @@
         <v>45821.62474537037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10904,7 +10904,7 @@
         <v>45821</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>45820.65793981482</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11028,7 +11028,7 @@
         <v>44958.94056712963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>45820.66358796296</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>45820.69231481481</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>45820.67159722222</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>45588.51137731481</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>45825.34456018519</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>45824.69837962963</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>45807.41793981481</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>45824.69834490741</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>45180</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>45363</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>45824.28274305556</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>45824.28693287037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>45826.67755787037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>45688</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>45890.62925925926</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>45826.57212962963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>44858.92932870371</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>45538.4608912037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>45558</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>45826.65725694445</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>44543</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>45842.63900462963</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12424,7 +12424,7 @@
         <v>45644</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12481,7 +12481,7 @@
         <v>45827.42748842593</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>45831</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>45831</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>45831</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12709,7 +12709,7 @@
         <v>45831</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12766,7 +12766,7 @@
         <v>45831.61511574074</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>45831</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
         <v>45831</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>45097</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>45005.48414351852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>45372.92877314815</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>45807.57351851852</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>45692</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44645</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>45604</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>45835.34453703704</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>45771.71935185185</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>45835.55337962963</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>45834.34450231482</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>45835.55673611111</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>45834</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>45700</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>45621.67932870371</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>45834.34546296296</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>45834</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44329.94148148148</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>45835.44841435185</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45839.60887731481</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>45075</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>45838.65694444445</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>45838.65704861111</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>45904.61815972222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14375,7 +14375,7 @@
         <v>45837.68739583333</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>45839.36539351852</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>45904</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>45838.49375</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>45839.37099537037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>45837.67564814815</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>45837.7256712963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>45608</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>45463</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>45909.59103009259</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>45909.58847222223</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         <v>45831</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>45460</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
         <v>44930</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>45831</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>45831</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>45909.55762731482</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>45831</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>45840.67837962963</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         <v>45141</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         <v>45840.63581018519</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>45820.63310185185</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15664,7 +15664,7 @@
         <v>45911.69827546296</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>45911.36493055556</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>45644</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>45845.53149305555</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>45679.50635416667</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>45917</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16016,7 +16016,7 @@
         <v>45637.52493055556</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16073,7 +16073,7 @@
         <v>45493.43340277778</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16130,7 +16130,7 @@
         <v>44993</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16187,7 +16187,7 @@
         <v>45922</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>45859.41423611111</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>45428</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         <v>45238.92782407408</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16430,7 +16430,7 @@
         <v>44424</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16487,7 +16487,7 @@
         <v>45160.96331018519</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>45427.5741550926</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16611,7 +16611,7 @@
         <v>45869.56310185185</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
         <v>44964.60572916667</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>45869.5119212963</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>45251</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>45457</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>45870</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>45870.65696759259</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17030,7 +17030,7 @@
         <v>45873</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>45671.52428240741</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>45189</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17201,7 +17201,7 @@
         <v>45933</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>45463.94219907407</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>45189.5340162037</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>45880.45326388889</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>45133.92516203703</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>45936.57395833333</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>45747</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>45882.58475694444</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>45882.59648148148</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>45882.4696412037</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>45882.65697916667</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>45882.42778935185</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>45882.42769675926</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>45882</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>45939</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>45939</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>45939</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44546</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>45554</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>45940.34579861111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18391,7 +18391,7 @@
         <v>45943.40819444445</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>45086</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>45943.43152777778</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>45943</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>44993</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44502</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>45593</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>45944.61768518519</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>45063.57871527778</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>45070</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18971,7 +18971,7 @@
         <v>44595</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>45946</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19095,7 +19095,7 @@
         <v>45947.34490740741</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19157,7 +19157,7 @@
         <v>45947.34668981482</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>45315.72337962963</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>45951.46915509259</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>45950.53168981482</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>45950.53265046296</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19457,7 +19457,7 @@
         <v>44601.93563657408</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
         <v>45950.44028935185</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>45951</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
         <v>45092</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19700,7 +19700,7 @@
         <v>45949.42743055556</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>45308.65068287037</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>45953</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>45321</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>45957.67832175926</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19995,7 +19995,7 @@
         <v>45440</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>44830</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>45463</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20176,7 +20176,7 @@
         <v>45954</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
         <v>45958.42047453704</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20300,7 +20300,7 @@
         <v>45958.42353009259</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20362,7 +20362,7 @@
         <v>44970.60267361111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20419,7 +20419,7 @@
         <v>44897</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>44547</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>45594</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20600,7 +20600,7 @@
         <v>45964.44515046296</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>45471.45269675926</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45471.4519212963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>45967</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>45610.34540509259</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>45967</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20972,7 +20972,7 @@
         <v>44469</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21029,7 +21029,7 @@
         <v>44950.94677083333</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>45379.93701388889</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21153,7 +21153,7 @@
         <v>45218</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21210,7 +21210,7 @@
         <v>45266</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21267,7 +21267,7 @@
         <v>45460</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21324,7 +21324,7 @@
         <v>45607.41652777778</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>44910.92200231482</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>45604</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21500,7 +21500,7 @@
         <v>45981</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>45981</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21624,7 +21624,7 @@
         <v>45980</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21686,7 +21686,7 @@
         <v>45631.71950231482</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21743,7 +21743,7 @@
         <v>44575</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21800,7 +21800,7 @@
         <v>45986.48284722222</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21857,7 +21857,7 @@
         <v>45986.49460648148</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>45986.49826388889</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21971,7 +21971,7 @@
         <v>45986</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22028,7 +22028,7 @@
         <v>44797.6012962963</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22090,7 +22090,7 @@
         <v>44823</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22152,7 +22152,7 @@
         <v>44820</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45513</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         <v>45988.60349537037</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22333,7 +22333,7 @@
         <v>45992</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>45709.3868287037</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
         <v>45993</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22514,7 +22514,7 @@
         <v>45498</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22571,7 +22571,7 @@
         <v>45308.66241898148</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22628,7 +22628,7 @@
         <v>45643</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22685,7 +22685,7 @@
         <v>44973.94396990741</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22747,7 +22747,7 @@
         <v>45588.51136574074</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22804,7 +22804,7 @@
         <v>45440</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         <v>45994.54037037037</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>45994.4485300926</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>45994.44859953703</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>45379.92288194445</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23104,7 +23104,7 @@
         <v>45996</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
         <v>45999.47011574074</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23218,7 +23218,7 @@
         <v>45999.57001157408</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         <v>45999.44186342593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23332,7 +23332,7 @@
         <v>45996</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>45999.43054398148</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23446,7 +23446,7 @@
         <v>45999.59505787037</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23503,7 +23503,7 @@
         <v>45999.44849537037</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23560,7 +23560,7 @@
         <v>46042.38613425926</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23617,7 +23617,7 @@
         <v>46042.60581018519</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23674,7 +23674,7 @@
         <v>45513.67081018518</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23736,7 +23736,7 @@
         <v>46001.51085648148</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23798,7 +23798,7 @@
         <v>45709.4059837963</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23855,7 +23855,7 @@
         <v>45639</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23912,7 +23912,7 @@
         <v>46042</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23969,7 +23969,7 @@
         <v>46002.55268518518</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24031,7 +24031,7 @@
         <v>45622</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>45181</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24145,7 +24145,7 @@
         <v>46048.59960648148</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         <v>46048.59770833333</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24259,7 +24259,7 @@
         <v>45693.42834490741</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24321,7 +24321,7 @@
         <v>44899</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24378,7 +24378,7 @@
         <v>45709.39804398148</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24435,7 +24435,7 @@
         <v>45644</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>45540</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24549,7 +24549,7 @@
         <v>45807</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24611,7 +24611,7 @@
         <v>45281</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
         <v>46009.67767361111</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>46009.67759259259</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>46009.59440972222</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>45154.39217592592</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>45643.61626157408</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24968,7 +24968,7 @@
         <v>45562.3905787037</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         <v>45429</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25087,7 +25087,7 @@
         <v>46052</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25144,7 +25144,7 @@
         <v>46052</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25201,7 +25201,7 @@
         <v>45622</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25258,7 +25258,7 @@
         <v>46055.61430555556</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25315,7 +25315,7 @@
         <v>46013.59417824074</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>46010.53060185185</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25429,7 +25429,7 @@
         <v>46013</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25486,7 +25486,7 @@
         <v>46013.41849537037</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25543,7 +25543,7 @@
         <v>45463.94173611111</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         <v>44546</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         <v>45453.35445601852</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25724,7 +25724,7 @@
         <v>45548</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25786,7 +25786,7 @@
         <v>46048</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25843,7 +25843,7 @@
         <v>45712</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25900,7 +25900,7 @@
         <v>46059.53188657408</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25962,7 +25962,7 @@
         <v>46059.53196759259</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26024,7 +26024,7 @@
         <v>45513</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26086,7 +26086,7 @@
         <v>45009</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26143,7 +26143,7 @@
         <v>45548</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>45604</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>44938.93743055555</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26324,7 +26324,7 @@
         <v>45691.67776620371</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>45189</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>45659</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>45534</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26562,7 +26562,7 @@
         <v>46029.44912037037</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>46029.57380787037</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>46029</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>46029.51079861111</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>44347</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>45518.97159722223</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26909,7 +26909,7 @@
         <v>45747.39802083333</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26966,7 +26966,7 @@
         <v>45699.55261574074</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         <v>44966</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27085,7 +27085,7 @@
         <v>45205</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27142,7 +27142,7 @@
         <v>45334</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27199,7 +27199,7 @@
         <v>45621</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27256,7 +27256,7 @@
         <v>45699.55245370371</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27318,7 +27318,7 @@
         <v>44966.50604166667</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27375,7 +27375,7 @@
         <v>44539</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27432,7 +27432,7 @@
         <v>45321</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27489,7 +27489,7 @@
         <v>45107.93931712963</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27551,7 +27551,7 @@
         <v>44543</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>45404.96539351852</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27665,7 +27665,7 @@
         <v>45436.40979166667</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>45448</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27789,7 +27789,7 @@
         <v>45667.55340277778</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27846,7 +27846,7 @@
         <v>45401.62734953704</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27903,7 +27903,7 @@
         <v>45442</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27965,7 +27965,7 @@
         <v>44960</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         <v>44817</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>45757</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         <v>45539</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28208,7 +28208,7 @@
         <v>44446</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28265,7 +28265,7 @@
         <v>45223</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28322,7 +28322,7 @@
         <v>45603.44780092593</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28384,7 +28384,7 @@
         <v>45603</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28446,7 +28446,7 @@
         <v>45603.44855324074</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28508,7 +28508,7 @@
         <v>44433.58289351852</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28570,7 +28570,7 @@
         <v>45693.51137731481</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28632,7 +28632,7 @@
         <v>45315.72113425926</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28689,7 +28689,7 @@
         <v>45775.44878472222</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28751,7 +28751,7 @@
         <v>45621.57475694444</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28808,7 +28808,7 @@
         <v>45744.4612037037</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28865,7 +28865,7 @@
         <v>45631</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28922,7 +28922,7 @@
         <v>45771</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28984,7 +28984,7 @@
         <v>45268</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29046,7 +29046,7 @@
         <v>45208</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29108,7 +29108,7 @@
         <v>45548</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>45602</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29232,7 +29232,7 @@
         <v>45169.62248842593</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29289,7 +29289,7 @@
         <v>45551</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>45153</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>45611.34413194445</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29470,7 +29470,7 @@
         <v>45107.93924768519</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29532,7 +29532,7 @@
         <v>45076</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29594,7 +29594,7 @@
         <v>45429.64071759259</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29656,7 +29656,7 @@
         <v>45510</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29718,7 +29718,7 @@
         <v>45593.38583333333</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>45692.61486111111</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29842,7 +29842,7 @@
         <v>45693.51109953703</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>45520.56951388889</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>45777.5672337963</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         <v>45779.48663194444</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>45779</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>45782</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30209,7 +30209,7 @@
         <v>45782</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30271,7 +30271,7 @@
         <v>45782</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30333,7 +30333,7 @@
         <v>44417</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30390,7 +30390,7 @@
         <v>45783</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30447,7 +30447,7 @@
         <v>45785</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30504,7 +30504,7 @@
         <v>45789.55678240741</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30561,7 +30561,7 @@
         <v>45789</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30618,7 +30618,7 @@
         <v>45793</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30680,7 +30680,7 @@
         <v>45793.67989583333</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30742,7 +30742,7 @@
         <v>45793.67730324074</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30804,7 +30804,7 @@
         <v>45793</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         <v>45796</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30928,7 +30928,7 @@
         <v>45796.64229166666</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30990,7 +30990,7 @@
         <v>45467.76189814815</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31047,7 +31047,7 @@
         <v>45796.6446412037</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>45323</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31166,7 +31166,7 @@
         <v>45803</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31228,7 +31228,7 @@
         <v>45803.62844907407</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31290,7 +31290,7 @@
         <v>45377</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>45807.41231481481</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>45807.41030092593</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31471,7 +31471,7 @@
         <v>45807.41303240741</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31533,7 +31533,7 @@
         <v>45807.41424768518</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>45807</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31657,7 +31657,7 @@
         <v>45811.42734953704</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31714,7 +31714,7 @@
         <v>45811.42734953704</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         <v>45810</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31833,7 +31833,7 @@
         <v>45813</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31895,7 +31895,7 @@
         <v>45813.34421296296</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31957,7 +31957,7 @@
         <v>45813.3452662037</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32019,7 +32019,7 @@
         <v>45813.34533564815</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32081,7 +32081,7 @@
         <v>45813.54103009259</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32138,7 +32138,7 @@
         <v>45813.34443287037</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32200,7 +32200,7 @@
         <v>45813.34540509259</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32262,7 +32262,7 @@
         <v>45813.34469907408</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32324,7 +32324,7 @@
         <v>45813.34486111111</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         <v>45817.52672453703</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>

--- a/Översikt ÖVERKALIX.xlsx
+++ b/Översikt ÖVERKALIX.xlsx
@@ -575,7 +575,7 @@
         <v>45958</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>46059.55278935185</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>45534</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>45946</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -993,7 +993,7 @@
         <v>45544</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>45894</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>45211.46008101852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>45310</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>45163.65806712963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>45874.64776620371</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>45922</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>45671</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44463</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44596</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>45534</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>45544</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>45831.35403935185</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>45908.61506944444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45908</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>45769</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45478</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>45922</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>45170</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>45154</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>46009.44835648148</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>45758.55125</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>44645</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>44658</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>45805.64427083333</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>45807.41697916666</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>45894.51512731481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>44966</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>45831.36143518519</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45904.6202662037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>45838</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>45835.66175925926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>45909.56116898148</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>45849.55521990741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>45859.30603009259</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>45926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>45174</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>44809.62597222222</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45622</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>45540</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>45450</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>45520</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>46057</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>45581</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>45581</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>45540</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>45588.4158912037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5271,7 +5271,7 @@
         <v>44496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>44356</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>44582</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>44550</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>44438</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>44718</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44386.91877314815</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44551</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>44374</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>44330.35358796296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>44711</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>44717</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>44755.41444444445</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44602.92184027778</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>44424</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>44466.93474537037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44448</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44862</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>44658</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>44435.45611111111</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>44788.92688657407</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>44417</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>44445</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>44607</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44281</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44341.63340277778</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>44362</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>44774.94194444444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44393</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44466</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44424</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44329.91831018519</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44432.654375</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44470</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>44648</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>44365.38575231482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>44623.93768518518</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>44875.92814814814</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>44433</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>44510</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>44659</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>44530</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>44607</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>44312</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>44872</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44602</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>44698</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>44698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44501</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>44348</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>44551</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>45771</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>45534</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>44817</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8497,7 +8497,7 @@
         <v>45238.92782407408</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8554,7 +8554,7 @@
         <v>45231.92543981481</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         <v>45709.4059837963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>45429</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>45372.92877314815</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>44347</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>45379.92288194445</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>44446</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>45443.63476851852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>45463</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>44886</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>45442</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>45107.93931712963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>44797.6012962963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>45075</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>44546</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>45463.94173611111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>45440</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>45244</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>44477.53277777778</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         <v>45597</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>45457</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>45334</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>44938.93743055555</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>45428</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>45510</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>45063.57871527778</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44546</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>45644</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>45545</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44899</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>45436.40979166667</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>45460.40491898148</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>45539</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>44435</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>45518.96950231482</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>45518.97159722223</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>45810</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         <v>45807.41231481481</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>45807.41303240741</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>45807.41424768518</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>45807</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>45807.41030092593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>45604</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>45811.42734953704</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>45513</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>45811.42734953704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>45813.34469907408</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44858.92932870371</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>45813.54103009259</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>45842.63900462963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>45813.34443287037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>45813.34421296296</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>45813.3452662037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>45813.34533564815</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>45813.34486111111</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>45538.4608912037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>45813.34540509259</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>45813</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>45558</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>45826.65725694445</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>45818.4499074074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>45890.62925925926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>45818</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>45807.41793981481</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12417,7 +12417,7 @@
         <v>45817.52672453703</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>45818</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44966</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>45818.44586805555</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>45820.67159722222</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>45644</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>45819.34493055556</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>45820.65793981482</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>45820.66358796296</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>45819.34449074074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>45820.69231481481</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>45821</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>44950.94677083333</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>45824.69837962963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>45821.62474537037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>45824.28693287037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>45824.28274305556</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>45824.69834490741</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>45371.97140046296</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>45588.51137731481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>45826.67755787037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>45826.57212962963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>45825.34456018519</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>45807.57351851852</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>45691.67776620371</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>44645</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>45548</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>45827.42748842593</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>45831</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>45831</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>45831.61511574074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>45700</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>45831</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>45692</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44717</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44329.94148148148</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>45831</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>45831</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>45831</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14730,7 +14730,7 @@
         <v>45266</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>45904</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14844,7 +14844,7 @@
         <v>45904.61815972222</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>45429.64071759259</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>45831</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>45834.34546296296</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>45834</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>45834.34450231482</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>45831</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>45831</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>45831</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>45401.62734953704</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>45834</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>45838.65694444445</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>45838.65704861111</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>45835.44841435185</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>45835.55337962963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>45602</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>45107.93924768519</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>45835.55673611111</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45837.68739583333</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>45838.49375</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>45621.67932870371</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>45835.34453703704</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>45837.67564814815</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>45909.55762731482</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>45837.7256712963</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>45839.37099537037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>45839.36539351852</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>45839.60887731481</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>45840.67837962963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>45268</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>45820.63310185185</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>45840.63581018519</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>45076</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>45744.4612037037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16877,7 +16877,7 @@
         <v>45909.58847222223</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>45909.59103009259</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16991,7 +16991,7 @@
         <v>45611</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>45845.53149305555</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>45911.69827546296</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>45622</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17229,7 +17229,7 @@
         <v>45911.36493055556</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17291,7 +17291,7 @@
         <v>45604</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>45643.61626157408</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         <v>45631</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         <v>44993</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17524,7 +17524,7 @@
         <v>44993</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17581,7 +17581,7 @@
         <v>45575.4482175926</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>45604</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>45611.34413194445</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17762,7 +17762,7 @@
         <v>45659</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17819,7 +17819,7 @@
         <v>45859.41423611111</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>44424</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         <v>45699.55245370371</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>45917</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18057,7 +18057,7 @@
         <v>45621.43038194445</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>45922</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>45869.5119212963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>45699.55261574074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18295,7 +18295,7 @@
         <v>45870</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>45870.65696759259</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18419,7 +18419,7 @@
         <v>45869.56310185185</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>45873</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>45880.45326388889</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>45643.53211805555</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>45882</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>45637.52493055556</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>45689.81684027778</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>45208</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>45882.58475694444</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>45882.42778935185</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19014,7 +19014,7 @@
         <v>45882.59648148148</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>45882.4696412037</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>45882.65697916667</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>45882.42769675926</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>45691.61585648148</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19319,7 +19319,7 @@
         <v>45933</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>45671.52428240741</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>45936.57395833333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>45757</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44433.58289351852</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>45747.39802083333</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45939</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>45939</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>45940.34579861111</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19852,7 +19852,7 @@
         <v>45939</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>45944.61768518519</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>45086</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>45943.40819444445</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>45943.43152777778</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>45943</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20194,7 +20194,7 @@
         <v>44469</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>44890.94890046296</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>45946</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20375,7 +20375,7 @@
         <v>45950.53168981482</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>45950.53265046296</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>45947.34490740741</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>45947.34668981482</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20623,7 +20623,7 @@
         <v>45949.42743055556</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20685,7 +20685,7 @@
         <v>45950.44028935185</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>45205</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>45315.72113425926</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>45951</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45562.3905787037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>45951.46915509259</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>45954</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>45953</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>45958.42047453704</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45958.42353009259</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>45957.67832175926</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21337,7 +21337,7 @@
         <v>44966.50604166667</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>45964.44515046296</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44547</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>45189</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>45520.56951388889</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>45967</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>45967</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>45379.93701388889</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44964.60572916667</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>45469.38991898148</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>45404.96539351852</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>45460</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>45980</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22108,7 +22108,7 @@
         <v>45429.64373842593</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>45009</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>44539</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>45133.92516203703</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22341,7 +22341,7 @@
         <v>45981</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22403,7 +22403,7 @@
         <v>45771.71935185185</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>45981</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>45588.51136574074</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>45986.48284722222</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22641,7 +22641,7 @@
         <v>45986</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>44958.94056712963</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>45540</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>45986.49460648148</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>45986.49826388889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>45070</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22993,7 +22993,7 @@
         <v>45141</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         <v>44543</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23107,7 +23107,7 @@
         <v>44595</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23169,7 +23169,7 @@
         <v>45643</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23226,7 +23226,7 @@
         <v>45988.60349537037</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>45513</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23345,7 +23345,7 @@
         <v>45622</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23402,7 +23402,7 @@
         <v>45992</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23464,7 +23464,7 @@
         <v>44820</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>44823</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
         <v>45994.4485300926</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>45994.44859953703</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23712,7 +23712,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>45993</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23836,7 +23836,7 @@
         <v>45994.54037037037</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23893,7 +23893,7 @@
         <v>45996</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23950,7 +23950,7 @@
         <v>45996</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>45321</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24064,7 +24064,7 @@
         <v>46042.60581018519</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
         <v>46042.38613425926</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>45999.44849537037</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>45999.47011574074</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>45999.57001157408</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>45999.43054398148</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>45677</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
         <v>45677.43979166666</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>45999.59505787037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>45999.44186342593</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>45189.5340162037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24691,7 +24691,7 @@
         <v>46001.51085648148</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>46002.55268518518</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>46042</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>45097</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>45189</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>46048.59770833333</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>45688</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>46048.59960648148</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25167,7 +25167,7 @@
         <v>45622</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25224,7 +25224,7 @@
         <v>45622</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>45715</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>45807</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>45621</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25457,7 +25457,7 @@
         <v>45561</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>45709.39804398148</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>45693.51109953703</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>45702</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>46010.53060185185</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>45251</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>46009.67759259259</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>46009.59440972222</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25933,7 +25933,7 @@
         <v>46009.67767361111</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>46052</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>46013</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>46013.41849537037</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>46055.61430555556</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>46052</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>46048</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26337,7 +26337,7 @@
         <v>45463</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>45693.42834490741</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26461,7 +26461,7 @@
         <v>46013.59417824074</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26518,7 +26518,7 @@
         <v>45181</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26575,7 +26575,7 @@
         <v>45712</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26632,7 +26632,7 @@
         <v>45460</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26689,7 +26689,7 @@
         <v>45281</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26751,7 +26751,7 @@
         <v>46059.53196759259</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26813,7 +26813,7 @@
         <v>45679.50635416667</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26870,7 +26870,7 @@
         <v>46059.53188657408</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26932,7 +26932,7 @@
         <v>45448</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26994,7 +26994,7 @@
         <v>45092</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>44575</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>45693.51137731481</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27175,7 +27175,7 @@
         <v>45631.71950231482</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27232,7 +27232,7 @@
         <v>46029</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27289,7 +27289,7 @@
         <v>46029.51079861111</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         <v>46029.44912037037</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27403,7 +27403,7 @@
         <v>45548</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>46029.57380787037</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>45231</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>44543</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27636,7 +27636,7 @@
         <v>45471.45269675926</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>45471.4519212963</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
         <v>45709.3868287037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27817,7 +27817,7 @@
         <v>46076.60331018519</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>46076.60814814815</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>46076.611875</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>44970.60267361111</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>44880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>44830</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28159,7 +28159,7 @@
         <v>44960.94230324074</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>45463.94219907407</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28283,7 +28283,7 @@
         <v>46080.39306712963</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28340,7 +28340,7 @@
         <v>46080.39447916667</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28397,7 +28397,7 @@
         <v>45427.5741550926</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         <v>45169.62248842593</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28516,7 +28516,7 @@
         <v>45308.66241898148</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28573,7 +28573,7 @@
         <v>45308.65068287037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         <v>45747</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>45453.35445601852</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28749,7 +28749,7 @@
         <v>45363</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28806,7 +28806,7 @@
         <v>45603.44780092593</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28868,7 +28868,7 @@
         <v>45603</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>45603.44855324074</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28992,7 +28992,7 @@
         <v>44834</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29049,7 +29049,7 @@
         <v>45498</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         <v>44930</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29163,7 +29163,7 @@
         <v>44502</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29220,7 +29220,7 @@
         <v>45005.48414351852</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         <v>45153</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29334,7 +29334,7 @@
         <v>45639</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29391,7 +29391,7 @@
         <v>44601.93563657408</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>45594</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>44973.94396990741</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>45154.39217592592</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>45593</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>45692.61486111111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29753,7 +29753,7 @@
         <v>45513.67081018518</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29815,7 +29815,7 @@
         <v>44910.92200231482</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29872,7 +29872,7 @@
         <v>45608</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29934,7 +29934,7 @@
         <v>45641.70442129629</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29991,7 +29991,7 @@
         <v>45607.41652777778</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30048,7 +30048,7 @@
         <v>45160.96331018519</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30110,7 +30110,7 @@
         <v>45621.57475694444</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>45593.38583333333</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30229,7 +30229,7 @@
         <v>45218</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30286,7 +30286,7 @@
         <v>45644</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30343,7 +30343,7 @@
         <v>45223</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30400,7 +30400,7 @@
         <v>45180</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30457,7 +30457,7 @@
         <v>45315.72337962963</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30514,7 +30514,7 @@
         <v>45551</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30576,7 +30576,7 @@
         <v>45321</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>45493.43340277778</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30690,7 +30690,7 @@
         <v>44960</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30752,7 +30752,7 @@
         <v>44897</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30814,7 +30814,7 @@
         <v>45610.34540509259</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30876,7 +30876,7 @@
         <v>45747</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30933,7 +30933,7 @@
         <v>45667.55340277778</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30990,7 +30990,7 @@
         <v>45463</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31052,7 +31052,7 @@
         <v>44964</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>45554</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31166,7 +31166,7 @@
         <v>45775.44878472222</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31228,7 +31228,7 @@
         <v>45548</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31290,7 +31290,7 @@
         <v>45440</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>45777.5672337963</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31414,7 +31414,7 @@
         <v>45779</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31471,7 +31471,7 @@
         <v>45779.48663194444</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31533,7 +31533,7 @@
         <v>45782</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>45782</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31657,7 +31657,7 @@
         <v>45782</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31719,7 +31719,7 @@
         <v>44417</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31776,7 +31776,7 @@
         <v>45783</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31833,7 +31833,7 @@
         <v>45785</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31890,7 +31890,7 @@
         <v>45789.55678240741</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31947,7 +31947,7 @@
         <v>45789</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32004,7 +32004,7 @@
         <v>45793.67730324074</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         <v>45467.76189814815</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32123,7 +32123,7 @@
         <v>45796.6446412037</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32185,7 +32185,7 @@
         <v>45796.64229166666</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>45793</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32309,7 +32309,7 @@
         <v>45796</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32371,7 +32371,7 @@
         <v>45793</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>45793.67989583333</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>45377</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>45323</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>45803</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32671,7 +32671,7 @@
         <v>45803.62844907407</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>

--- a/Översikt ÖVERKALIX.xlsx
+++ b/Översikt ÖVERKALIX.xlsx
@@ -575,7 +575,7 @@
         <v>45958</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>46059.55278935185</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>45534</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>45946</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -993,7 +993,7 @@
         <v>45544</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>45894</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>45211.46008101852</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>45310</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         <v>45163.65806712963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>45874.64776620371</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>45922</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>45671</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
         <v>44463</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44596</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>45534</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>45544</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>45831.35403935185</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>45908.61506944444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
         <v>45908</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>45769</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>45478</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>45922</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>45170</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>45154</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>46009.44835648148</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>45758.55125</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         <v>44645</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>44658</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>45805.64427083333</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>45807.41697916666</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>45894.51512731481</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>44966</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>45831.36143518519</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>45904.6202662037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>45838</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>45835.66175925926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>45909.56116898148</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>45849.55521990741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>45859.30603009259</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>45926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>45174</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>44809.62597222222</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45622</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>45540</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>45450</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>45520</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>46057</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>45581</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>45581</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>45540</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>45588.4158912037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5271,7 +5271,7 @@
         <v>44496</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>44356</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>44582</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>44550</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>44438</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>44718</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44386.91877314815</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44551</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>44374</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>44330.35358796296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>44711</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>44717</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>44755.41444444445</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>44602.92184027778</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         <v>44424</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>44466.93474537037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         <v>44448</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>44862</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>44658</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>44435.45611111111</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>44788.92688657407</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>44417</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>44445</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>44607</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>44281</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>44341.63340277778</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>44362</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>44774.94194444444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>44393</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>44466</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>44424</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>44329.91831018519</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>44432.654375</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>44470</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         <v>44648</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>44365.38575231482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>44623.93768518518</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>44875.92814814814</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>44433</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>44510</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>44659</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         <v>44530</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         <v>44607</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>44312</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>44872</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44602</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>44698</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>44698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>44501</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>44348</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>44551</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>45771</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>45534</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>44817</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8497,7 +8497,7 @@
         <v>45238.92782407408</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8554,7 +8554,7 @@
         <v>45231.92543981481</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         <v>45709.4059837963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>45429</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8730,7 +8730,7 @@
         <v>45372.92877314815</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>44347</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>45379.92288194445</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>44446</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>45443.63476851852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>45463</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>44886</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>45442</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>45107.93931712963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>44797.6012962963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>45075</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>44546</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>45463.94173611111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>45440</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>45244</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>44477.53277777778</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         <v>45597</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>45457</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>45334</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>44938.93743055555</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>45428</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>45510</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>45063.57871527778</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44546</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>45644</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>45545</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>44899</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>45436.40979166667</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>45460.40491898148</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>45539</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>44435</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>45518.96950231482</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>45518.97159722223</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>45810</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         <v>45807.41231481481</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>45807.41303240741</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>45807.41424768518</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>45807</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>45807.41030092593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>45604</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>45811.42734953704</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>45513</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>45811.42734953704</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>45813.34469907408</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>44858.92932870371</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>45813.54103009259</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>45842.63900462963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>45813.34443287037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>45813.34421296296</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>45813.3452662037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>45813.34533564815</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>45813.34486111111</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>45538.4608912037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>45813.34540509259</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>45813</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>45558</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>45826.65725694445</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>45818.4499074074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>45890.62925925926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>45818</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>45807.41793981481</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12417,7 +12417,7 @@
         <v>45817.52672453703</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>45818</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44966</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>45818.44586805555</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>45820.67159722222</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>45644</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>45819.34493055556</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>45820.65793981482</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>45820.66358796296</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>45819.34449074074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>45820.69231481481</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>45821</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>44950.94677083333</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>45824.69837962963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>45821.62474537037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>45824.28693287037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>45824.28274305556</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>45824.69834490741</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>45371.97140046296</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>45588.51137731481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>45826.67755787037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         <v>45826.57212962963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>45825.34456018519</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>45807.57351851852</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13865,7 +13865,7 @@
         <v>45691.67776620371</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>44645</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>45548</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>45827.42748842593</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>45831</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>45831</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>45831.61511574074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>45700</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>45831</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>45692</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44717</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44329.94148148148</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>45831</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>45831</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14673,7 +14673,7 @@
         <v>45831</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14730,7 +14730,7 @@
         <v>45266</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         <v>45904</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14844,7 +14844,7 @@
         <v>45904.61815972222</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>45429.64071759259</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         <v>45831</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         <v>45834.34546296296</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15082,7 +15082,7 @@
         <v>45834</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>45834.34450231482</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>45831</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>45831</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>45831</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>45401.62734953704</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>45834</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>45838.65694444445</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>45838.65704861111</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>45835.44841435185</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>45835.55337962963</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>45602</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>45107.93924768519</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>45835.55673611111</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45837.68739583333</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>45838.49375</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>45621.67932870371</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>45835.34453703704</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
         <v>45837.67564814815</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>45909.55762731482</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         <v>45837.7256712963</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>45839.37099537037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>45839.36539351852</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>45839.60887731481</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>45840.67837962963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>45268</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>45820.63310185185</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>45840.63581018519</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>45076</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>45744.4612037037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16877,7 +16877,7 @@
         <v>45909.58847222223</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>45909.59103009259</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16991,7 +16991,7 @@
         <v>45611</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>45845.53149305555</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>45911.69827546296</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17172,7 +17172,7 @@
         <v>45622</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17229,7 +17229,7 @@
         <v>45911.36493055556</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17291,7 +17291,7 @@
         <v>45604</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>45643.61626157408</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         <v>45631</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         <v>44993</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17524,7 +17524,7 @@
         <v>44993</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17581,7 +17581,7 @@
         <v>45575.4482175926</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>45604</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>45611.34413194445</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17762,7 +17762,7 @@
         <v>45659</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17819,7 +17819,7 @@
         <v>45859.41423611111</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>44424</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         <v>45699.55245370371</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>45917</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18057,7 +18057,7 @@
         <v>45621.43038194445</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>45922</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>45869.5119212963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>45699.55261574074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18295,7 +18295,7 @@
         <v>45870</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>45870.65696759259</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18419,7 +18419,7 @@
         <v>45869.56310185185</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>45873</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>45880.45326388889</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>45643.53211805555</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>45882</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>45637.52493055556</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>45689.81684027778</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>45208</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>45882.58475694444</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>45882.42778935185</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19014,7 +19014,7 @@
         <v>45882.59648148148</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19071,7 +19071,7 @@
         <v>45882.4696412037</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>45882.65697916667</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>45882.42769675926</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>45691.61585648148</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19319,7 +19319,7 @@
         <v>45933</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19381,7 +19381,7 @@
         <v>45671.52428240741</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>45936.57395833333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19500,7 +19500,7 @@
         <v>45757</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         <v>44433.58289351852</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>45747.39802083333</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45939</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>45939</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>45940.34579861111</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19852,7 +19852,7 @@
         <v>45939</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>45944.61768518519</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>45086</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>45943.40819444445</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>45943.43152777778</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>45943</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20194,7 +20194,7 @@
         <v>44469</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>44890.94890046296</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20313,7 +20313,7 @@
         <v>45946</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20375,7 +20375,7 @@
         <v>45950.53168981482</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20437,7 +20437,7 @@
         <v>45950.53265046296</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20499,7 +20499,7 @@
         <v>45947.34490740741</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>45947.34668981482</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20623,7 +20623,7 @@
         <v>45949.42743055556</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20685,7 +20685,7 @@
         <v>45950.44028935185</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20742,7 +20742,7 @@
         <v>45205</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20799,7 +20799,7 @@
         <v>45315.72113425926</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20856,7 +20856,7 @@
         <v>45951</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20918,7 +20918,7 @@
         <v>45562.3905787037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20975,7 +20975,7 @@
         <v>45951.46915509259</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>45954</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21094,7 +21094,7 @@
         <v>45953</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21151,7 +21151,7 @@
         <v>45958.42047453704</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45958.42353009259</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>45957.67832175926</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21337,7 +21337,7 @@
         <v>44966.50604166667</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>45964.44515046296</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44547</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21513,7 +21513,7 @@
         <v>45189</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>45520.56951388889</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>45967</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>45967</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>45379.93701388889</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44964.60572916667</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>45469.38991898148</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>45404.96539351852</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>45460</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>45980</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22108,7 +22108,7 @@
         <v>45429.64373842593</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>45009</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>44539</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>45133.92516203703</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22341,7 +22341,7 @@
         <v>45981</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22403,7 +22403,7 @@
         <v>45771.71935185185</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>45981</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>45588.51136574074</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>45986.48284722222</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22641,7 +22641,7 @@
         <v>45986</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>44958.94056712963</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>45540</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>45986.49460648148</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>45986.49826388889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>45070</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22993,7 +22993,7 @@
         <v>45141</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         <v>44543</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23107,7 +23107,7 @@
         <v>44595</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23169,7 +23169,7 @@
         <v>45643</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23226,7 +23226,7 @@
         <v>45988.60349537037</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>45513</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23345,7 +23345,7 @@
         <v>45622</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23402,7 +23402,7 @@
         <v>45992</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23464,7 +23464,7 @@
         <v>44820</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23526,7 +23526,7 @@
         <v>44823</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23588,7 +23588,7 @@
         <v>45994.4485300926</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>45994.44859953703</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23712,7 +23712,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23774,7 +23774,7 @@
         <v>45993</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23836,7 +23836,7 @@
         <v>45994.54037037037</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23893,7 +23893,7 @@
         <v>45996</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23950,7 +23950,7 @@
         <v>45996</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>45321</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24064,7 +24064,7 @@
         <v>46042.60581018519</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
         <v>46042.38613425926</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>45999.44849537037</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>45999.47011574074</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>45999.57001157408</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>45999.43054398148</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>45677</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
         <v>45677.43979166666</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>45999.59505787037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>45999.44186342593</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>45189.5340162037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24691,7 +24691,7 @@
         <v>46001.51085648148</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>46002.55268518518</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24815,7 +24815,7 @@
         <v>46042</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>45097</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>45189</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>46048.59770833333</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         <v>45688</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>46048.59960648148</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25167,7 +25167,7 @@
         <v>45622</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25224,7 +25224,7 @@
         <v>45622</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>45715</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>45807</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>45621</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25457,7 +25457,7 @@
         <v>45561</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>45709.39804398148</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>45693.51109953703</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25638,7 +25638,7 @@
         <v>45702</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25695,7 +25695,7 @@
         <v>46010.53060185185</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25752,7 +25752,7 @@
         <v>45251</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25814,7 +25814,7 @@
         <v>46009.67759259259</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>46009.59440972222</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25933,7 +25933,7 @@
         <v>46009.67767361111</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>46052</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>46013</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         <v>46013.41849537037</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26166,7 +26166,7 @@
         <v>46055.61430555556</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26223,7 +26223,7 @@
         <v>46052</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26280,7 +26280,7 @@
         <v>46048</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26337,7 +26337,7 @@
         <v>45463</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26399,7 +26399,7 @@
         <v>45693.42834490741</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26461,7 +26461,7 @@
         <v>46013.59417824074</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26518,7 +26518,7 @@
         <v>45181</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26575,7 +26575,7 @@
         <v>45712</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26632,7 +26632,7 @@
         <v>45460</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26689,7 +26689,7 @@
         <v>45281</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26751,7 +26751,7 @@
         <v>46059.53196759259</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26813,7 +26813,7 @@
         <v>45679.50635416667</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26870,7 +26870,7 @@
         <v>46059.53188657408</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26932,7 +26932,7 @@
         <v>45448</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26994,7 +26994,7 @@
         <v>45092</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>44575</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>45693.51137731481</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27175,7 +27175,7 @@
         <v>45631.71950231482</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27232,7 +27232,7 @@
         <v>46029</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27289,7 +27289,7 @@
         <v>46029.51079861111</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         <v>46029.44912037037</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27403,7 +27403,7 @@
         <v>45548</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>46029.57380787037</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>45231</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27579,7 +27579,7 @@
         <v>44543</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27636,7 +27636,7 @@
         <v>45471.45269675926</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>45471.4519212963</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
         <v>45709.3868287037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27817,7 +27817,7 @@
         <v>46076.60331018519</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>46076.60814814815</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>46076.611875</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>44970.60267361111</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>44880</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>44830</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28159,7 +28159,7 @@
         <v>44960.94230324074</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>45463.94219907407</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28283,7 +28283,7 @@
         <v>46080.39306712963</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28340,7 +28340,7 @@
         <v>46080.39447916667</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28397,7 +28397,7 @@
         <v>45427.5741550926</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         <v>45169.62248842593</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28516,7 +28516,7 @@
         <v>45308.66241898148</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28573,7 +28573,7 @@
         <v>45308.65068287037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28630,7 +28630,7 @@
         <v>45747</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>45453.35445601852</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28749,7 +28749,7 @@
         <v>45363</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28806,7 +28806,7 @@
         <v>45603.44780092593</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28868,7 +28868,7 @@
         <v>45603</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>45603.44855324074</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28992,7 +28992,7 @@
         <v>44834</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29049,7 +29049,7 @@
         <v>45498</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         <v>44930</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29163,7 +29163,7 @@
         <v>44502</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29220,7 +29220,7 @@
         <v>45005.48414351852</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         <v>45153</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29334,7 +29334,7 @@
         <v>45639</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29391,7 +29391,7 @@
         <v>44601.93563657408</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>45594</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>44973.94396990741</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>45154.39217592592</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>45593</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>45692.61486111111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29753,7 +29753,7 @@
         <v>45513.67081018518</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29815,7 +29815,7 @@
         <v>44910.92200231482</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29872,7 +29872,7 @@
         <v>45608</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29934,7 +29934,7 @@
         <v>45641.70442129629</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29991,7 +29991,7 @@
         <v>45607.41652777778</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30048,7 +30048,7 @@
         <v>45160.96331018519</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30110,7 +30110,7 @@
         <v>45621.57475694444</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30167,7 +30167,7 @@
         <v>45593.38583333333</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30229,7 +30229,7 @@
         <v>45218</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30286,7 +30286,7 @@
         <v>45644</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30343,7 +30343,7 @@
         <v>45223</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30400,7 +30400,7 @@
         <v>45180</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30457,7 +30457,7 @@
         <v>45315.72337962963</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30514,7 +30514,7 @@
         <v>45551</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30576,7 +30576,7 @@
         <v>45321</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30633,7 +30633,7 @@
         <v>45493.43340277778</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30690,7 +30690,7 @@
         <v>44960</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30752,7 +30752,7 @@
         <v>44897</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30814,7 +30814,7 @@
         <v>45610.34540509259</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30876,7 +30876,7 @@
         <v>45747</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30933,7 +30933,7 @@
         <v>45667.55340277778</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30990,7 +30990,7 @@
         <v>45463</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31052,7 +31052,7 @@
         <v>44964</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31109,7 +31109,7 @@
         <v>45554</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31166,7 +31166,7 @@
         <v>45775.44878472222</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31228,7 +31228,7 @@
         <v>45548</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31290,7 +31290,7 @@
         <v>45440</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>45777.5672337963</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31414,7 +31414,7 @@
         <v>45779</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31471,7 +31471,7 @@
         <v>45779.48663194444</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31533,7 +31533,7 @@
         <v>45782</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>45782</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31657,7 +31657,7 @@
         <v>45782</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31719,7 +31719,7 @@
         <v>44417</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31776,7 +31776,7 @@
         <v>45783</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31833,7 +31833,7 @@
         <v>45785</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31890,7 +31890,7 @@
         <v>45789.55678240741</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31947,7 +31947,7 @@
         <v>45789</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32004,7 +32004,7 @@
         <v>45793.67730324074</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         <v>45467.76189814815</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32123,7 +32123,7 @@
         <v>45796.6446412037</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32185,7 +32185,7 @@
         <v>45796.64229166666</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32247,7 +32247,7 @@
         <v>45793</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32309,7 +32309,7 @@
         <v>45796</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32371,7 +32371,7 @@
         <v>45793</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32433,7 +32433,7 @@
         <v>45793.67989583333</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32495,7 +32495,7 @@
         <v>45377</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32552,7 +32552,7 @@
         <v>45323</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32609,7 +32609,7 @@
         <v>45803</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32671,7 +32671,7 @@
         <v>45803.62844907407</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
